--- a/elsa/sprint3/doc/Scrum_ELSA_Sprint_3.xlsx
+++ b/elsa/sprint3/doc/Scrum_ELSA_Sprint_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\OneDrive\Documents\GitHub\cse1325\elsa\sprint2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\OneDrive\Documents\GitHub\cse1325\elsa\sprint3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B538935E-AE2D-465D-8737-50E6DDF2E91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711C9F34-25D1-4C08-AF8A-7006A5E4C737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="4185" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
   <si>
     <t>Product Name:</t>
   </si>
@@ -474,9 +474,6 @@
     <t>JS</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Finished in Sprint 1</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>In Work</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -1152,16 +1152,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,7 +3113,7 @@
   <dimension ref="A1:AMK95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3211,8 +3211,8 @@
       <c r="H5" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>145</v>
+      <c r="I5" s="5">
+        <v>1001627879</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -3225,7 +3225,9 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6">
+        <v>1001627879</v>
+      </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3329,9 +3331,7 @@
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 1")</f>
         <v>4</v>
       </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="11">
         <v>1</v>
@@ -3349,15 +3349,13 @@
       </c>
       <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 2")</f>
-        <v>3</v>
-      </c>
-      <c r="D14" s="8">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="11">
         <v>2</v>
@@ -3375,15 +3373,13 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 3")</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="11">
         <v>3</v>
@@ -3401,15 +3397,13 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
         <v>0</v>
       </c>
-      <c r="D16" s="8">
-        <v>22</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="11"/>
       <c r="G16" s="2"/>
@@ -3423,15 +3417,13 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
         <v>0</v>
       </c>
-      <c r="D17" s="8">
-        <v>22</v>
-      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="11"/>
       <c r="G17" s="2"/>
@@ -3558,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>31</v>
@@ -3589,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>35</v>
@@ -3620,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>31</v>
@@ -3651,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>31</v>
@@ -3682,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>31</v>
@@ -3713,7 +3705,7 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>31</v>
@@ -3746,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>31</v>
@@ -3779,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>57</v>
@@ -3809,7 +3801,9 @@
       <c r="F32" s="18">
         <v>3</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="H32" s="19" t="s">
         <v>61</v>
       </c>
@@ -3840,7 +3834,9 @@
       <c r="F33" s="18">
         <v>3</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="H33" s="19" t="s">
         <v>61</v>
       </c>
@@ -3871,7 +3867,9 @@
       <c r="F34" s="18">
         <v>3</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G34" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="H34" s="19" t="s">
         <v>61</v>
       </c>
@@ -3902,7 +3900,9 @@
       <c r="F35" s="18">
         <v>4</v>
       </c>
-      <c r="G35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="H35" s="19" t="s">
         <v>71</v>
       </c>
@@ -3931,7 +3931,9 @@
       <c r="F36" s="18">
         <v>4</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="H36" s="19" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +4000,9 @@
       <c r="E40" s="17">
         <v>13</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="18">
+        <v>4</v>
+      </c>
       <c r="G40" s="18"/>
       <c r="H40" s="19" t="s">
         <v>71</v>
@@ -4027,7 +4031,9 @@
       <c r="E41" s="17">
         <v>5</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="18">
+        <v>4</v>
+      </c>
       <c r="G41" s="18"/>
       <c r="H41" s="19" t="s">
         <v>71</v>
@@ -4054,7 +4060,9 @@
       <c r="E42" s="17">
         <v>8</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="18">
+        <v>4</v>
+      </c>
       <c r="G42" s="18"/>
       <c r="H42" s="19" t="s">
         <v>31</v>
@@ -4081,7 +4089,9 @@
       <c r="E43" s="17">
         <v>21</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="18">
+        <v>4</v>
+      </c>
       <c r="G43" s="18"/>
       <c r="H43" s="19" t="s">
         <v>31</v>
@@ -4108,7 +4118,9 @@
       <c r="E44" s="17">
         <v>13</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="18">
+        <v>4</v>
+      </c>
       <c r="G44" s="18"/>
       <c r="H44" s="19" t="s">
         <v>31</v>
@@ -4135,7 +4147,9 @@
       <c r="E45" s="17">
         <v>5</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="18">
+        <v>4</v>
+      </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19" t="s">
         <v>71</v>
@@ -4164,7 +4178,9 @@
       <c r="E46" s="17">
         <v>5</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="18">
+        <v>4</v>
+      </c>
       <c r="G46" s="18"/>
       <c r="H46" s="19" t="s">
         <v>71</v>
@@ -4193,7 +4209,9 @@
       <c r="E47" s="17">
         <v>13</v>
       </c>
-      <c r="F47" s="18"/>
+      <c r="F47" s="18">
+        <v>4</v>
+      </c>
       <c r="G47" s="18"/>
       <c r="H47" s="19" t="s">
         <v>35</v>
@@ -4222,7 +4240,9 @@
       <c r="E48" s="17">
         <v>8</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="18">
+        <v>4</v>
+      </c>
       <c r="G48" s="18"/>
       <c r="H48" s="19" t="s">
         <v>61</v>
